--- a/output/fit_clients/fit_round_200.xlsx
+++ b/output/fit_clients/fit_round_200.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2071064235.079707</v>
+        <v>1548380166.606071</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07450908734753997</v>
+        <v>0.1050190441860289</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04290589451787553</v>
+        <v>0.0346737307833231</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1035532122.68953</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2561243442.894374</v>
+        <v>2425357454.303887</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1260707407853592</v>
+        <v>0.1666675099263818</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04387069868224539</v>
+        <v>0.04104707029771918</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1280621848.404531</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3506842938.413585</v>
+        <v>4723441364.351673</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1264528644190213</v>
+        <v>0.1450801517621908</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02411719248943883</v>
+        <v>0.0303805674824848</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>72</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1753421448.439258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3868600338.492023</v>
+        <v>4069614052.724384</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0836313279327236</v>
+        <v>0.08015452918801008</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04082370864604663</v>
+        <v>0.04106718659144962</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>75</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1934300181.585324</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2352399803.264394</v>
+        <v>2852898953.385804</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1372040717464613</v>
+        <v>0.09499304165005674</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03477585905422647</v>
+        <v>0.03821317287783457</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>33</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1176199893.064986</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2071675077.894751</v>
+        <v>3120930275.103795</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1004144062618622</v>
+        <v>0.0651256478779897</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0355701053034751</v>
+        <v>0.04134110815951086</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>62</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1035837593.168385</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3767048155.046081</v>
+        <v>3901671172.154931</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1970899433341213</v>
+        <v>0.1453968724793745</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03067557529248316</v>
+        <v>0.02951872122332915</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>64</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1883524213.430516</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1585512050.314937</v>
+        <v>1972347881.905805</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1422072278181636</v>
+        <v>0.1927673286040212</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03549494495637288</v>
+        <v>0.02258268448689664</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>792756109.2631541</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4377822853.774453</v>
+        <v>5896932836.619074</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2050113826913252</v>
+        <v>0.1920629105812801</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04073647565350049</v>
+        <v>0.05043834287965906</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>84</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2188911478.036516</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2831317242.450418</v>
+        <v>3685230777.534071</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1284643391947207</v>
+        <v>0.1749271702656222</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0499845810046614</v>
+        <v>0.04540033041007335</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>83</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1415658552.42495</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3164961487.050206</v>
+        <v>3279314107.180327</v>
       </c>
       <c r="F12" t="n">
-        <v>0.181776002433708</v>
+        <v>0.1423148938249064</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04054668478227241</v>
+        <v>0.04151459498127402</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>71</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1582480776.640896</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5255718802.12631</v>
+        <v>5162129304.903327</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08810783274940906</v>
+        <v>0.06267385641451532</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02607062383751782</v>
+        <v>0.02522007738049771</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>67</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2627859392.185504</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3079590773.068936</v>
+        <v>2528632930.278654</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1205461786821833</v>
+        <v>0.1503404740953453</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02946240820082024</v>
+        <v>0.02710945933624692</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>66</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1539795415.179457</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1710296094.609699</v>
+        <v>1499271059.92716</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08031013273671461</v>
+        <v>0.06703903011129493</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03613047033840566</v>
+        <v>0.04914468022101545</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>855148180.4640076</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2642415842.894022</v>
+        <v>2732197560.724399</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09221461972257336</v>
+        <v>0.09641631269684531</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04926897093032971</v>
+        <v>0.03413981296989181</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>30</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1321207939.521141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3705356513.722034</v>
+        <v>3542749022.730618</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1191778301285662</v>
+        <v>0.1376231817271757</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0372633761079926</v>
+        <v>0.03490169450618342</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>58</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1852678305.995142</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2625000412.038053</v>
+        <v>2472985299.610081</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1145908343294716</v>
+        <v>0.1475715277277615</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03279011285053485</v>
+        <v>0.02234007060320085</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>66</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1312500263.367792</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>854802775.0930073</v>
+        <v>1206827597.721685</v>
       </c>
       <c r="F19" t="n">
-        <v>0.143883851078487</v>
+        <v>0.1351033312702624</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02039587818106018</v>
+        <v>0.01748474756520264</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>427401381.4052725</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2114088402.830365</v>
+        <v>2470265386.457287</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1160742459973431</v>
+        <v>0.1504333517284238</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02638219502814649</v>
+        <v>0.01973371959884494</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>33</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1057044215.57051</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1982140442.883019</v>
+        <v>1848189386.914049</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0635846318781467</v>
+        <v>0.09321755612374058</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0438731306116788</v>
+        <v>0.0387283533315405</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>991070259.0818495</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3532368992.75194</v>
+        <v>4027063299.771221</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08755722963150249</v>
+        <v>0.1374217020745345</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04017068317444832</v>
+        <v>0.05316831609787291</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>56</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1766184526.009207</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1226792682.790947</v>
+        <v>1480800218.101119</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1411797283691113</v>
+        <v>0.1553087775029576</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05209695389344321</v>
+        <v>0.05125754938832192</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>613396373.3448697</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3243699526.719673</v>
+        <v>2729372765.508957</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1247513529138627</v>
+        <v>0.1352252903761953</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02448250874188705</v>
+        <v>0.03456204559595862</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>58</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1621849782.196779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1254858934.015543</v>
+        <v>1306108717.021531</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09792402128709736</v>
+        <v>0.108166346519519</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02143358174010156</v>
+        <v>0.02479466256798318</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>627429472.3517638</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1367947905.954674</v>
+        <v>1411604659.113369</v>
       </c>
       <c r="F26" t="n">
-        <v>0.100775909581228</v>
+        <v>0.1180383805182515</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02966909442194164</v>
+        <v>0.02901059404282889</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>683974015.0857332</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2935075884.84485</v>
+        <v>4727969341.142595</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1157367091445471</v>
+        <v>0.1286088065660018</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01975506633502093</v>
+        <v>0.01743416891260954</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>48</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1467538005.449223</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3682542959.911866</v>
+        <v>3389372953.521005</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1439804778053327</v>
+        <v>0.125623616344265</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03777117654475479</v>
+        <v>0.04830693837614321</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>64</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1841271550.427861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5732359012.553982</v>
+        <v>3992847615.103209</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1262178544443847</v>
+        <v>0.1130407822421286</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04588225929508329</v>
+        <v>0.03441234304056562</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>89</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2866179403.055269</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1580310271.058507</v>
+        <v>2253728092.868513</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1339537262832544</v>
+        <v>0.1075372851748007</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0372416684997714</v>
+        <v>0.03418837642164362</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>790155125.2002053</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1452513698.154097</v>
+        <v>1070578700.654472</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09234855578829622</v>
+        <v>0.1024374076630472</v>
       </c>
       <c r="G31" t="n">
-        <v>0.036145581517281</v>
+        <v>0.04702962546160835</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>726256741.0737765</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1449801436.413095</v>
+        <v>1277537411.559543</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1150964524142832</v>
+        <v>0.104494209194835</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02376744526133005</v>
+        <v>0.02913421229672244</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>724900776.1366433</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2874984219.338533</v>
+        <v>2081916477.530871</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1968512256900056</v>
+        <v>0.1644083216900803</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04158271117991244</v>
+        <v>0.04494158963726023</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>59</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1437492115.92282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1054861670.212958</v>
+        <v>1551923119.890059</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1123443155554493</v>
+        <v>0.1109321538878673</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02765096226833172</v>
+        <v>0.0239021351574262</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>527430863.9282215</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1043210721.734468</v>
+        <v>994053467.0458087</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1044113893603091</v>
+        <v>0.08129402718235747</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0313609894210935</v>
+        <v>0.03331162239263885</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>521605369.9484589</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2579174636.223395</v>
+        <v>2656627548.329012</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1588920715803554</v>
+        <v>0.1720870852790766</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01785941264438119</v>
+        <v>0.02832643279475078</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>50</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1289587333.738934</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1870693086.931083</v>
+        <v>1937087495.347184</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08464528532789339</v>
+        <v>0.1016261027644694</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03457342476286417</v>
+        <v>0.04096245389136578</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>53</v>
-      </c>
-      <c r="J37" t="n">
-        <v>935346552.9465841</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1603892624.944652</v>
+        <v>2037810454.618048</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09843861129973253</v>
+        <v>0.09289176489630255</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03000118370560374</v>
+        <v>0.02695388582794751</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>801946347.0331031</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1775451997.765312</v>
+        <v>1946165898.032114</v>
       </c>
       <c r="F39" t="n">
-        <v>0.19290589452819</v>
+        <v>0.1251904624955982</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02752466872957888</v>
+        <v>0.02021944833561152</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>887726027.4798249</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1353526724.461726</v>
+        <v>1334056318.91545</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1576790280376003</v>
+        <v>0.1110333903751419</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05612202644414314</v>
+        <v>0.04811106236616043</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>676763365.05086</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2124330687.061383</v>
+        <v>2140649609.874713</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1434312224769605</v>
+        <v>0.1588868328499207</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04434631228847617</v>
+        <v>0.04087845070539874</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>50</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1062165405.544461</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3142070876.307931</v>
+        <v>3515722723.649725</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09848088648486941</v>
+        <v>0.1054159631505991</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04194429534781145</v>
+        <v>0.04611093342523584</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>66</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1571035408.354359</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1867428618.391369</v>
+        <v>2491761055.042619</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1591475138689463</v>
+        <v>0.1754558053133472</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02294703725591924</v>
+        <v>0.01777624234277206</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>69</v>
-      </c>
-      <c r="J43" t="n">
-        <v>933714421.4431304</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1934728673.180855</v>
+        <v>2051334021.275405</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06889894427776015</v>
+        <v>0.09119050788268351</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02781834453105686</v>
+        <v>0.03330628571447507</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>967364429.8865812</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2076343839.489938</v>
+        <v>1720320982.152332</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1799838865653275</v>
+        <v>0.1728466541460405</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03638476685944608</v>
+        <v>0.04772633108592863</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1038171918.312316</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5688882135.591048</v>
+        <v>5101152802.920791</v>
       </c>
       <c r="F46" t="n">
-        <v>0.131631440288535</v>
+        <v>0.1440820670509586</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04313416940468801</v>
+        <v>0.05328616565914331</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>71</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2844441134.009582</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3607713971.776735</v>
+        <v>5031489454.18638</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1974444851877732</v>
+        <v>0.1285856328047737</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05827595788139902</v>
+        <v>0.04900168879867958</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>54</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1803856962.769458</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3915224449.476784</v>
+        <v>3437982286.563538</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09933859936895949</v>
+        <v>0.08602680440553741</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03437512534379721</v>
+        <v>0.02995502445149703</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>65</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1957612263.996892</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1554605045.07147</v>
+        <v>1803719219.693133</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1506287203441699</v>
+        <v>0.153857473962065</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03062630335182158</v>
+        <v>0.04318414696107679</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>777302546.0563338</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2872719571.171659</v>
+        <v>2883505657.251407</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1594697221956178</v>
+        <v>0.1740074756662342</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0497132613946979</v>
+        <v>0.03880345454776086</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>68</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1436359854.453119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1518421401.026104</v>
+        <v>1007839117.677157</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1237001043826449</v>
+        <v>0.1381008623329578</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04145936696749376</v>
+        <v>0.04857569673166653</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>759210700.4451948</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4480158771.403371</v>
+        <v>4201817711.888116</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1390268315187065</v>
+        <v>0.1360648069629733</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06083496565587294</v>
+        <v>0.04107391261074086</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>83</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2240079413.90031</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2972834268.059093</v>
+        <v>3567516366.699282</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1397447147682325</v>
+        <v>0.1472034313511965</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02157433719031058</v>
+        <v>0.0235820967416371</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>57</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1486417168.34705</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3924887786.550551</v>
+        <v>4263474058.957092</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1538172079896196</v>
+        <v>0.1059027150040925</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03684375250106257</v>
+        <v>0.05239161711333158</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>65</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1962443951.435638</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4973924038.102457</v>
+        <v>4527126803.018402</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1840817668957748</v>
+        <v>0.1533787727158624</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01997216532346921</v>
+        <v>0.02507556770432094</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>53</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2486962036.94102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1604370141.710453</v>
+        <v>1196248255.716346</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1326822107298206</v>
+        <v>0.149367770575491</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05255352790597804</v>
+        <v>0.04621559320565464</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>802185097.6013756</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3411372296.148596</v>
+        <v>3171047885.800214</v>
       </c>
       <c r="F57" t="n">
-        <v>0.180338250738337</v>
+        <v>0.1157763582061746</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02132602248661675</v>
+        <v>0.02309611794388612</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>63</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1705686186.991101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1619884829.937693</v>
+        <v>1901036552.545236</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1252960295537481</v>
+        <v>0.1965372642106051</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03002251110624754</v>
+        <v>0.03664260205071219</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>809942435.1463028</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5163685574.795527</v>
+        <v>4787566205.291392</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0905796806454137</v>
+        <v>0.1046721301743729</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04944196971946507</v>
+        <v>0.04991302138021703</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>56</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2581842707.209231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2357483294.087171</v>
+        <v>2896434503.519321</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1765404583062341</v>
+        <v>0.1783422326007015</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02281172392359371</v>
+        <v>0.02522532097871187</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>63</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1178741649.975724</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3033231807.455536</v>
+        <v>3030482867.619648</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1666969732540841</v>
+        <v>0.1557992426639009</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0250496752604626</v>
+        <v>0.03175233512884552</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>69</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1516615881.044324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1894498402.123964</v>
+        <v>1391995590.880543</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1830430872001759</v>
+        <v>0.1708351985569588</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03963367798850945</v>
+        <v>0.04019056751810042</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>947249243.3067496</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4612859416.071437</v>
+        <v>4287229497.481481</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07859749236668954</v>
+        <v>0.07684230542389259</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03167423668035764</v>
+        <v>0.04248824629444715</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>57</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2306429743.040614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3873268025.193553</v>
+        <v>3676377831.793542</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1194875122205181</v>
+        <v>0.1686347156865817</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03425408356218105</v>
+        <v>0.02652669954403664</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>62</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1936634039.524595</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4680077948.819717</v>
+        <v>4808551271.779303</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1654822767604144</v>
+        <v>0.1354196510486361</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02448025981607209</v>
+        <v>0.02334610485497527</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>72</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2340038952.388477</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5428402621.866031</v>
+        <v>5550520331.761408</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1607430931150891</v>
+        <v>0.1145964228687944</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03189983395762346</v>
+        <v>0.03144041941571958</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>58</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2714201361.002621</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2633732496.801286</v>
+        <v>3320288921.604694</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08930243789100424</v>
+        <v>0.07823695381467546</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03544679873386369</v>
+        <v>0.04390661648915582</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>65</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1316866297.657156</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5193526848.600137</v>
+        <v>3705369181.078913</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1356779586765576</v>
+        <v>0.1153601042408259</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03625641064024838</v>
+        <v>0.03487707018015422</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>65</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2596763492.396935</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2191889882.73516</v>
+        <v>1511315031.427662</v>
       </c>
       <c r="F69" t="n">
-        <v>0.155050422883479</v>
+        <v>0.1403968078231531</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04738797021488373</v>
+        <v>0.04514880536024356</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1095944971.141672</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3647337822.098874</v>
+        <v>3051350489.42985</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07740875090219591</v>
+        <v>0.0998120935528278</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04124108084307765</v>
+        <v>0.03354933178155868</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>57</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1823668930.128551</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4335704326.164055</v>
+        <v>4644959847.034105</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1219781622613706</v>
+        <v>0.1843715379860943</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02430210581846653</v>
+        <v>0.02821319881857649</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>73</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2167852219.148949</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2004167091.121357</v>
+        <v>1904015182.055263</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06864736517475453</v>
+        <v>0.1067204864628261</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05176859202484448</v>
+        <v>0.03437159180824412</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1002083491.233515</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3138127641.578908</v>
+        <v>3101137326.721124</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1050837177728617</v>
+        <v>0.08152573712342819</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04067384336542844</v>
+        <v>0.0365811360104662</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>78</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1569063804.099467</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3576825749.681993</v>
+        <v>3162152181.973107</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1654133686812871</v>
+        <v>0.1361580462680372</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03385851514954855</v>
+        <v>0.02219141410933297</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>68</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1788412890.372915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2355792355.000582</v>
+        <v>1512693436.909133</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1296789532672571</v>
+        <v>0.1060412519765629</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03282790898583342</v>
+        <v>0.02506227966671091</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1177896108.364481</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3848947434.840521</v>
+        <v>3555081718.191559</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1250640428023453</v>
+        <v>0.08733620643456885</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02374050226966977</v>
+        <v>0.03176367700364696</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>48</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1924473695.810205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2000271551.209506</v>
+        <v>2021214240.275817</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1638152773414027</v>
+        <v>0.1486630134090336</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02235631624733334</v>
+        <v>0.02605649016860136</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1000135837.122165</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4200613925.548284</v>
+        <v>3501268938.013781</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1263121342308083</v>
+        <v>0.1313384853408285</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05011724440664966</v>
+        <v>0.04019668589463862</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>70</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2100306914.143607</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1686910999.034884</v>
+        <v>1251601056.682739</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1287987330714016</v>
+        <v>0.1091246474205113</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02584388021207807</v>
+        <v>0.03822999593721119</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>843455566.365743</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3920607223.69671</v>
+        <v>4736201446.133387</v>
       </c>
       <c r="F80" t="n">
-        <v>0.107796802775048</v>
+        <v>0.09821871332597409</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0387044866950768</v>
+        <v>0.03442807662574229</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>42</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1960303607.342846</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4942400793.667887</v>
+        <v>4580792076.212369</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09620052640304869</v>
+        <v>0.1149364960151576</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03127123588568751</v>
+        <v>0.02550274678492161</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>46</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2471200395.023377</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3460980313.22302</v>
+        <v>5043477135.219742</v>
       </c>
       <c r="F82" t="n">
-        <v>0.190801881804131</v>
+        <v>0.2064355865567286</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0290995450239817</v>
+        <v>0.02214735054501561</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>72</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1730490226.446435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1664552616.500879</v>
+        <v>2356597405.046504</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1169823593289795</v>
+        <v>0.1330502550566107</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03881150104236256</v>
+        <v>0.04516251047115012</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>832276251.7437332</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1772062041.743455</v>
+        <v>2078433112.149042</v>
       </c>
       <c r="F84" t="n">
-        <v>0.118732672689485</v>
+        <v>0.1158322247045932</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05092756012961912</v>
+        <v>0.03217544041886365</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>886031059.2844219</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3352624636.068606</v>
+        <v>2511831646.652181</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1298378648724952</v>
+        <v>0.1851072981627975</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03973601264822001</v>
+        <v>0.03586134072088591</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>76</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1676312417.097077</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2397863216.370779</v>
+        <v>1875060369.72804</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1212940070366053</v>
+        <v>0.1045831780923196</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02539537222419782</v>
+        <v>0.01962552080164482</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>27</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1198931691.095903</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>979766150.3103957</v>
+        <v>1329048720.198481</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1775823206397714</v>
+        <v>0.1689947055290684</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03776074659688715</v>
+        <v>0.03609784116925198</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>489883074.2695981</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3156482427.878663</v>
+        <v>3373837331.922637</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1085220284052097</v>
+        <v>0.1639685771923761</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03624964321629946</v>
+        <v>0.03841179941001349</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>79</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1578241259.834938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3187868985.769824</v>
+        <v>2493862816.558824</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1322218560405514</v>
+        <v>0.1305019707879264</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03080624973323569</v>
+        <v>0.03241023699244541</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>69</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1593934517.204618</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1513878810.227935</v>
+        <v>1550653597.9927</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1316298266117081</v>
+        <v>0.08700766785615766</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0472420381030948</v>
+        <v>0.04380181484248331</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>756939386.3638773</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2014956025.646819</v>
+        <v>2026039914.329178</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1568509334194178</v>
+        <v>0.1892665723245809</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05577676708037969</v>
+        <v>0.06107833615570651</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1007477983.056644</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2647784891.314511</v>
+        <v>2677529443.103279</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1006174127735724</v>
+        <v>0.09816249072834772</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03467919854088207</v>
+        <v>0.03029537879664677</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>48</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1323892440.759064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4094729005.704608</v>
+        <v>3931815886.474148</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09547350114688556</v>
+        <v>0.1395761849420344</v>
       </c>
       <c r="G93" t="n">
-        <v>0.052587192292848</v>
+        <v>0.04386104540808342</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>62</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2047364497.334998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2208987966.273746</v>
+        <v>1810629373.801246</v>
       </c>
       <c r="F94" t="n">
-        <v>0.164216399221671</v>
+        <v>0.1404749232419966</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03596776446372559</v>
+        <v>0.03490845449299625</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1104494008.659147</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2045810528.323078</v>
+        <v>2446559234.035829</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1085321029007779</v>
+        <v>0.08840420995089086</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03688409455514077</v>
+        <v>0.03849486362104532</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>48</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1022905333.263534</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2160245966.128697</v>
+        <v>2074595069.603462</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09718879356586689</v>
+        <v>0.131416097815603</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04557813015364677</v>
+        <v>0.03945944914584656</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1080122952.91134</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4205831472.655161</v>
+        <v>4997878485.185766</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1344720825622031</v>
+        <v>0.1422585409901961</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02651863415235913</v>
+        <v>0.02327511271752299</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>66</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2102915809.240306</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3685297247.769373</v>
+        <v>3290027211.164776</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1018130310317134</v>
+        <v>0.1212119589377053</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02415271036240706</v>
+        <v>0.02629489336647446</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>53</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1842648655.057254</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2282136752.461003</v>
+        <v>2715575703.019758</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1183604777697955</v>
+        <v>0.1372179513512868</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02818187148116103</v>
+        <v>0.03324654374168391</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>62</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1141068310.126022</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3852782000.87518</v>
+        <v>3732307692.967088</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1455765222447825</v>
+        <v>0.1202305432170137</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02567333684568451</v>
+        <v>0.02037095484424943</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>61</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1926391059.347377</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2413444007.388041</v>
+        <v>3488092406.947809</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1598451075688022</v>
+        <v>0.2017026123511769</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04634809076895095</v>
+        <v>0.05294298075877309</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>81</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1206722015.202305</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_200.xlsx
+++ b/output/fit_clients/fit_round_200.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1548380166.606071</v>
+        <v>2109072962.824482</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1050190441860289</v>
+        <v>0.08514114047191938</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0346737307833231</v>
+        <v>0.03370372610839054</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2425357454.303887</v>
+        <v>2429819676.875969</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1666675099263818</v>
+        <v>0.1688981574258353</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04104707029771918</v>
+        <v>0.03407942384564998</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4723441364.351673</v>
+        <v>4614589936.651458</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1450801517621908</v>
+        <v>0.1038711391231813</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0303805674824848</v>
+        <v>0.03695923681550527</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4069614052.724384</v>
+        <v>3640667231.443982</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08015452918801008</v>
+        <v>0.06933392024061952</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04106718659144962</v>
+        <v>0.0490733413354844</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2852898953.385804</v>
+        <v>2263581735.696695</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09499304165005674</v>
+        <v>0.1388606569347081</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03821317287783457</v>
+        <v>0.0344083692847368</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3120930275.103795</v>
+        <v>2345595525.970181</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0651256478779897</v>
+        <v>0.07054558643853236</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04134110815951086</v>
+        <v>0.03734720668305987</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3901671172.154931</v>
+        <v>3905682888.753964</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1453968724793745</v>
+        <v>0.2106809857966508</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02951872122332915</v>
+        <v>0.02386867134828174</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1972347881.905805</v>
+        <v>1425920778.868406</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1927673286040212</v>
+        <v>0.1494024840218199</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02258268448689664</v>
+        <v>0.03321562333201989</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5896932836.619074</v>
+        <v>4230750145.21927</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1920629105812801</v>
+        <v>0.2039124377446981</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05043834287965906</v>
+        <v>0.04027088621014743</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3685230777.534071</v>
+        <v>3398321560.430194</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1749271702656222</v>
+        <v>0.1511601039306877</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04540033041007335</v>
+        <v>0.04048721955723338</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3279314107.180327</v>
+        <v>2323555975.735871</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1423148938249064</v>
+        <v>0.1385423806730907</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04151459498127402</v>
+        <v>0.04758446568860788</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5162129304.903327</v>
+        <v>4146856624.405277</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06267385641451532</v>
+        <v>0.09571730541116494</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02522007738049771</v>
+        <v>0.03115055231298381</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2528632930.278654</v>
+        <v>3752657844.094303</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1503404740953453</v>
+        <v>0.147743432007245</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02710945933624692</v>
+        <v>0.0283047931524034</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1499271059.92716</v>
+        <v>1142675349.099276</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06703903011129493</v>
+        <v>0.0800881984718044</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04914468022101545</v>
+        <v>0.04054785571963764</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2732197560.724399</v>
+        <v>2166568318.30824</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09641631269684531</v>
+        <v>0.08490312002181898</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03413981296989181</v>
+        <v>0.0463333197254136</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3542749022.730618</v>
+        <v>3509241478.550069</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1376231817271757</v>
+        <v>0.1204078043983422</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03490169450618342</v>
+        <v>0.03521499708861828</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2472985299.610081</v>
+        <v>3244275978.595332</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1475715277277615</v>
+        <v>0.1731868867642354</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02234007060320085</v>
+        <v>0.03305870281708392</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -962,16 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1206827597.721685</v>
+        <v>1106241177.74591</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1351033312702624</v>
+        <v>0.1819036565016378</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01748474756520264</v>
+        <v>0.01725469597055395</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2470265386.457287</v>
+        <v>2071176213.823818</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1504333517284238</v>
+        <v>0.1385659081607006</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01973371959884494</v>
+        <v>0.02683021581819338</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1848189386.914049</v>
+        <v>1891217666.782489</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09321755612374058</v>
+        <v>0.08869747372988507</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0387283533315405</v>
+        <v>0.03348042547644502</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4027063299.771221</v>
+        <v>3152672623.475353</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1374217020745345</v>
+        <v>0.103348521958144</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05316831609787291</v>
+        <v>0.04038618816049919</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1480800218.101119</v>
+        <v>1447594216.100011</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1553087775029576</v>
+        <v>0.1663270779928306</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05125754938832192</v>
+        <v>0.05251086882145053</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2729372765.508957</v>
+        <v>3050899440.81212</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1352252903761953</v>
+        <v>0.1220533889761844</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03456204559595862</v>
+        <v>0.03709017427942981</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1306108717.021531</v>
+        <v>1000741348.736567</v>
       </c>
       <c r="F25" t="n">
-        <v>0.108166346519519</v>
+        <v>0.1085230400518278</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02479466256798318</v>
+        <v>0.02835844884666975</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,16 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1411604659.113369</v>
+        <v>1009946058.894498</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1180383805182515</v>
+        <v>0.07590760178349415</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02901059404282889</v>
+        <v>0.03255963419925338</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4727969341.142595</v>
+        <v>4614038330.798508</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1286088065660018</v>
+        <v>0.1271194070387978</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01743416891260954</v>
+        <v>0.02211264211749386</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3389372953.521005</v>
+        <v>2862119097.225162</v>
       </c>
       <c r="F28" t="n">
-        <v>0.125623616344265</v>
+        <v>0.120404519388099</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04830693837614321</v>
+        <v>0.03745625379139075</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3992847615.103209</v>
+        <v>5119113931.096384</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1130407822421286</v>
+        <v>0.1228641229819316</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03441234304056562</v>
+        <v>0.04017350359580652</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2253728092.868513</v>
+        <v>1821500536.85266</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1075372851748007</v>
+        <v>0.09989216595496647</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03418837642164362</v>
+        <v>0.02908659661763476</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1070578700.654472</v>
+        <v>1022842432.384911</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1024374076630472</v>
+        <v>0.07432238309942538</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04702962546160835</v>
+        <v>0.04746806168815557</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1277537411.559543</v>
+        <v>1869495955.001965</v>
       </c>
       <c r="F32" t="n">
-        <v>0.104494209194835</v>
+        <v>0.07725569016781064</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02913421229672244</v>
+        <v>0.0338311343906699</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2081916477.530871</v>
+        <v>1924959641.513853</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1644083216900803</v>
+        <v>0.1257780970938868</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04494158963726023</v>
+        <v>0.04223904068714052</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1551923119.890059</v>
+        <v>1427143509.693152</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1109321538878673</v>
+        <v>0.09185936177206136</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0239021351574262</v>
+        <v>0.0260522745867257</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>994053467.0458087</v>
+        <v>1262135574.877367</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08129402718235747</v>
+        <v>0.08859220466030861</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03331162239263885</v>
+        <v>0.04338097826770779</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2656627548.329012</v>
+        <v>2712354386.398933</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1720870852790766</v>
+        <v>0.1098525247433183</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02832643279475078</v>
+        <v>0.02731941101419615</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1937087495.347184</v>
+        <v>2317378798.993576</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1016261027644694</v>
+        <v>0.09385732349869154</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04096245389136578</v>
+        <v>0.03567037976797988</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2037810454.618048</v>
+        <v>2096222128.493174</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09289176489630255</v>
+        <v>0.1149107043733032</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02695388582794751</v>
+        <v>0.03087164586058462</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1946165898.032114</v>
+        <v>1600005354.039761</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1251904624955982</v>
+        <v>0.136671733046563</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02021944833561152</v>
+        <v>0.02653692147326523</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1334056318.91545</v>
+        <v>1769697171.765587</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1110333903751419</v>
+        <v>0.1364147064526526</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04811106236616043</v>
+        <v>0.04880286504309576</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2140649609.874713</v>
+        <v>2445175757.278603</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1588868328499207</v>
+        <v>0.1075358911439709</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04087845070539874</v>
+        <v>0.04413252915605376</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3515722723.649725</v>
+        <v>3351047075.447678</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1054159631505991</v>
+        <v>0.1077740725039834</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04611093342523584</v>
+        <v>0.0379692984958887</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2491761055.042619</v>
+        <v>1887434607.663836</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1754558053133472</v>
+        <v>0.1833245585063471</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01777624234277206</v>
+        <v>0.01915207201682354</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2051334021.275405</v>
+        <v>1463060717.58879</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09119050788268351</v>
+        <v>0.07322768630435603</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03330628571447507</v>
+        <v>0.02365456353888751</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1720320982.152332</v>
+        <v>2348366485.206017</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1728466541460405</v>
+        <v>0.1456345474081189</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04772633108592863</v>
+        <v>0.05093448740853889</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5101152802.920791</v>
+        <v>5560325726.008873</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1440820670509586</v>
+        <v>0.1299808065707246</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05328616565914331</v>
+        <v>0.04098985895629877</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5031489454.18638</v>
+        <v>4913474468.661996</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1285856328047737</v>
+        <v>0.1409309645466605</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04900168879867958</v>
+        <v>0.05129830464240941</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3437982286.563538</v>
+        <v>3545814027.659629</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08602680440553741</v>
+        <v>0.1097977130232454</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02995502445149703</v>
+        <v>0.03872822993329682</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1803719219.693133</v>
+        <v>1242057651.501792</v>
       </c>
       <c r="F49" t="n">
-        <v>0.153857473962065</v>
+        <v>0.1728662136673369</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04318414696107679</v>
+        <v>0.04280204722398254</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2883505657.251407</v>
+        <v>2586881372.09215</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1740074756662342</v>
+        <v>0.1360116984439343</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03880345454776086</v>
+        <v>0.04216892640170451</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1007839117.677157</v>
+        <v>1047119829.684928</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1381008623329578</v>
+        <v>0.1825061465187693</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04857569673166653</v>
+        <v>0.03618002155993486</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4201817711.888116</v>
+        <v>4411055502.009658</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1360648069629733</v>
+        <v>0.1249095813150555</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04107391261074086</v>
+        <v>0.05043319474059118</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3567516366.699282</v>
+        <v>2506105891.67886</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1472034313511965</v>
+        <v>0.20400235625591</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0235820967416371</v>
+        <v>0.02589610107549985</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4263474058.957092</v>
+        <v>4803903484.740423</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1059027150040925</v>
+        <v>0.1383505968175544</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05239161711333158</v>
+        <v>0.04529657323186975</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4527126803.018402</v>
+        <v>3392353036.277553</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1533787727158624</v>
+        <v>0.2127345668820291</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02507556770432094</v>
+        <v>0.02481567183549028</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1196248255.716346</v>
+        <v>1460211184.206899</v>
       </c>
       <c r="F56" t="n">
-        <v>0.149367770575491</v>
+        <v>0.1077134326260036</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04621559320565464</v>
+        <v>0.05735877191791423</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3171047885.800214</v>
+        <v>4398846509.985613</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1157763582061746</v>
+        <v>0.1348394701798046</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02309611794388612</v>
+        <v>0.02250956741146665</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1901036552.545236</v>
+        <v>1297466135.453433</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1965372642106051</v>
+        <v>0.191042875978441</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03664260205071219</v>
+        <v>0.03933840441811511</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4787566205.291392</v>
+        <v>4330208653.387997</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1046721301743729</v>
+        <v>0.1003773786374303</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04991302138021703</v>
+        <v>0.04788467953100441</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2896434503.519321</v>
+        <v>3703945968.588297</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1783422326007015</v>
+        <v>0.133911288863708</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02522532097871187</v>
+        <v>0.02908121059829142</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3030482867.619648</v>
+        <v>2767833671.580228</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1557992426639009</v>
+        <v>0.1587859755284829</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03175233512884552</v>
+        <v>0.02697380901749862</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1391995590.880543</v>
+        <v>2004015986.226584</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1708351985569588</v>
+        <v>0.1629669850209306</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04019056751810042</v>
+        <v>0.03976204629223081</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4287229497.481481</v>
+        <v>4803553991.420316</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07684230542389259</v>
+        <v>0.08002361778256672</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04248824629444715</v>
+        <v>0.04745700710336186</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3676377831.793542</v>
+        <v>4630668065.749854</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1686347156865817</v>
+        <v>0.1432203498197359</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02652669954403664</v>
+        <v>0.02591730489294232</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4808551271.779303</v>
+        <v>4585523186.064857</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1354196510486361</v>
+        <v>0.1292717939962686</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02334610485497527</v>
+        <v>0.0278117803112476</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5550520331.761408</v>
+        <v>4962772546.742291</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1145964228687944</v>
+        <v>0.1563776015410426</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03144041941571958</v>
+        <v>0.04917477478221735</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3320288921.604694</v>
+        <v>3164289664.178366</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07823695381467546</v>
+        <v>0.07379633527216671</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04390661648915582</v>
+        <v>0.03244640643558656</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3705369181.078913</v>
+        <v>3658409174.744974</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1153601042408259</v>
+        <v>0.1167641691368891</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03487707018015422</v>
+        <v>0.03485876614542466</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1511315031.427662</v>
+        <v>2422160051.91132</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1403968078231531</v>
+        <v>0.1800847891856233</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04514880536024356</v>
+        <v>0.0475313156956359</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3051350489.42985</v>
+        <v>2252504685.736767</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0998120935528278</v>
+        <v>0.06908505548224261</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03354933178155868</v>
+        <v>0.03020735603218653</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4644959847.034105</v>
+        <v>4580263192.852243</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1843715379860943</v>
+        <v>0.157962651176147</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02821319881857649</v>
+        <v>0.03402187845664504</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1904015182.055263</v>
+        <v>1931308347.823274</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1067204864628261</v>
+        <v>0.1043633757109278</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03437159180824412</v>
+        <v>0.04014423171669858</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3101137326.721124</v>
+        <v>3337033749.233585</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08152573712342819</v>
+        <v>0.07328388238652725</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0365811360104662</v>
+        <v>0.04968370611391602</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3162152181.973107</v>
+        <v>3697263265.111976</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1361580462680372</v>
+        <v>0.1611763759726473</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02219141410933297</v>
+        <v>0.02261720192640352</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,16 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1512693436.909133</v>
+        <v>2474982098.193425</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1060412519765629</v>
+        <v>0.1014329679551826</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02506227966671091</v>
+        <v>0.03744971532086815</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3555081718.191559</v>
+        <v>5020222009.327799</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08733620643456885</v>
+        <v>0.1222140466015061</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03176367700364696</v>
+        <v>0.02132488192927499</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2021214240.275817</v>
+        <v>1924485536.335947</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1486630134090336</v>
+        <v>0.1176893470307905</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02605649016860136</v>
+        <v>0.03001604934268614</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3501268938.013781</v>
+        <v>3803079875.543282</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1313384853408285</v>
+        <v>0.09721305212245782</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04019668589463862</v>
+        <v>0.03697426176406163</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1251601056.682739</v>
+        <v>1308872173.872274</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1091246474205113</v>
+        <v>0.1361131729132164</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03822999593721119</v>
+        <v>0.04073482350497055</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4736201446.133387</v>
+        <v>4804047027.477126</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09821871332597409</v>
+        <v>0.1074214059919887</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03442807662574229</v>
+        <v>0.0371994798195194</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4580792076.212369</v>
+        <v>4031763416.438592</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1149364960151576</v>
+        <v>0.09658522313766799</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02550274678492161</v>
+        <v>0.03181658629715812</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5043477135.219742</v>
+        <v>5291843366.402081</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2064355865567286</v>
+        <v>0.2075286719352347</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02214735054501561</v>
+        <v>0.02004843410266256</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2356597405.046504</v>
+        <v>1827743902.541218</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1330502550566107</v>
+        <v>0.110614130492011</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04516251047115012</v>
+        <v>0.04325612657661954</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2078433112.149042</v>
+        <v>1600306540.215988</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1158322247045932</v>
+        <v>0.1175540658017149</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03217544041886365</v>
+        <v>0.04915088559728786</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2511831646.652181</v>
+        <v>3480389224.110399</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1851072981627975</v>
+        <v>0.1341187100042191</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03586134072088591</v>
+        <v>0.03502749632419763</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1875060369.72804</v>
+        <v>2686455763.271647</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1045831780923196</v>
+        <v>0.148180297683892</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01962552080164482</v>
+        <v>0.02223492045144995</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1329048720.198481</v>
+        <v>1305044421.887453</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1689947055290684</v>
+        <v>0.1545997922693453</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03609784116925198</v>
+        <v>0.03444078210289057</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3373837331.922637</v>
+        <v>2782340040.704448</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1639685771923761</v>
+        <v>0.1643807426674799</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03841179941001349</v>
+        <v>0.02768703197174242</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2493862816.558824</v>
+        <v>3116284151.527398</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1305019707879264</v>
+        <v>0.1199810193195655</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03241023699244541</v>
+        <v>0.0391060380157968</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1550653597.9927</v>
+        <v>2158262154.205873</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08700766785615766</v>
+        <v>0.09951149626439655</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04380181484248331</v>
+        <v>0.04704301301580369</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2026039914.329178</v>
+        <v>1818859219.587796</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1892665723245809</v>
+        <v>0.1872225180248909</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06107833615570651</v>
+        <v>0.05206937103186561</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2677529443.103279</v>
+        <v>2647998968.17345</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09816249072834772</v>
+        <v>0.07073580062455875</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03029537879664677</v>
+        <v>0.04124585165621321</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3931815886.474148</v>
+        <v>4993868429.538573</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1395761849420344</v>
+        <v>0.08817452271913985</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04386104540808342</v>
+        <v>0.03620356867814609</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1810629373.801246</v>
+        <v>1887376028.148818</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1404749232419966</v>
+        <v>0.140865737856284</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03490845449299625</v>
+        <v>0.03822916320721598</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2446559234.035829</v>
+        <v>2375992283.690654</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08840420995089086</v>
+        <v>0.09939787607342175</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03849486362104532</v>
+        <v>0.03439168320823428</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2074595069.603462</v>
+        <v>1862835134.039901</v>
       </c>
       <c r="F96" t="n">
-        <v>0.131416097815603</v>
+        <v>0.09617451484509452</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03945944914584656</v>
+        <v>0.04480172429937891</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4997878485.185766</v>
+        <v>3321369856.471487</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1422585409901961</v>
+        <v>0.1551743360639127</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02327511271752299</v>
+        <v>0.02515605879698142</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3290027211.164776</v>
+        <v>2692985829.239233</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1212119589377053</v>
+        <v>0.08888558770751896</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02629489336647446</v>
+        <v>0.02020972515635425</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2715575703.019758</v>
+        <v>2476509991.661186</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1372179513512868</v>
+        <v>0.145299274751643</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03324654374168391</v>
+        <v>0.02189188214952149</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3732307692.967088</v>
+        <v>4308713547.822803</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1202305432170137</v>
+        <v>0.1281467067055251</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02037095484424943</v>
+        <v>0.01712403265077584</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3488092406.947809</v>
+        <v>3450247193.968539</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2017026123511769</v>
+        <v>0.1348290782574075</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05294298075877309</v>
+        <v>0.05745330437839571</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_200.xlsx
+++ b/output/fit_clients/fit_round_200.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2109072962.824482</v>
+        <v>1744901482.413627</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08514114047191938</v>
+        <v>0.08642563878902951</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03370372610839054</v>
+        <v>0.03030678245956544</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2429819676.875969</v>
+        <v>1897660257.909851</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1688981574258353</v>
+        <v>0.145061227821025</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03407942384564998</v>
+        <v>0.03162812366361892</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4614589936.651458</v>
+        <v>3526983129.141801</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1038711391231813</v>
+        <v>0.1441639287123467</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03695923681550527</v>
+        <v>0.03824305501061721</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>110</v>
+      </c>
+      <c r="J4" t="n">
+        <v>199</v>
+      </c>
+      <c r="K4" t="n">
+        <v>106.6011237987486</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3640667231.443982</v>
+        <v>2656614226.618616</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06933392024061952</v>
+        <v>0.09451566434528513</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0490733413354844</v>
+        <v>0.042794285970256</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>84</v>
+      </c>
+      <c r="J5" t="n">
+        <v>199</v>
+      </c>
+      <c r="K5" t="n">
+        <v>70.46382091379246</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +645,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2263581735.696695</v>
+        <v>2526974900.233854</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1388606569347081</v>
+        <v>0.0972011875308143</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0344083692847368</v>
+        <v>0.04773358899198517</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2345595525.970181</v>
+        <v>2906757288.34662</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07054558643853236</v>
+        <v>0.08808539384628701</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03734720668305987</v>
+        <v>0.04080343349061116</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +709,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3905682888.753964</v>
+        <v>2797755336.078974</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2106809857966508</v>
+        <v>0.1480272900595736</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02386867134828174</v>
+        <v>0.02521861410655437</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>57</v>
+      </c>
+      <c r="J8" t="n">
+        <v>199</v>
+      </c>
+      <c r="K8" t="n">
+        <v>68.57179539019894</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +746,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1425920778.868406</v>
+        <v>2110597517.340712</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1494024840218199</v>
+        <v>0.1981882389333839</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03321562333201989</v>
+        <v>0.03419639001787495</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +781,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4230750145.21927</v>
+        <v>5091885118.876519</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2039124377446981</v>
+        <v>0.1323580062782979</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04027088621014743</v>
+        <v>0.04409414047656846</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>183</v>
+      </c>
+      <c r="J10" t="n">
+        <v>200</v>
+      </c>
+      <c r="K10" t="n">
+        <v>129.6677714782747</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +818,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3398321560.430194</v>
+        <v>3635763544.52728</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1511601039306877</v>
+        <v>0.1668107058601793</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04048721955723338</v>
+        <v>0.04314222320906229</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>82</v>
+      </c>
+      <c r="J11" t="n">
+        <v>200</v>
+      </c>
+      <c r="K11" t="n">
+        <v>124.6956249786153</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +855,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2323555975.735871</v>
+        <v>2490272979.149558</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1385423806730907</v>
+        <v>0.1954872035335987</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04758446568860788</v>
+        <v>0.05279003826246337</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +896,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4146856624.405277</v>
+        <v>3479711865.098832</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09571730541116494</v>
+        <v>0.09299490524968314</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03115055231298381</v>
+        <v>0.02087080113366712</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>100</v>
+      </c>
+      <c r="J13" t="n">
+        <v>198</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +925,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3752657844.094303</v>
+        <v>2545416560.54184</v>
       </c>
       <c r="F14" t="n">
-        <v>0.147743432007245</v>
+        <v>0.1474511963161173</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0283047931524034</v>
+        <v>0.02828047597027249</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>38</v>
+      </c>
+      <c r="J14" t="n">
+        <v>197</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +966,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1142675349.099276</v>
+        <v>1810770492.151288</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0800881984718044</v>
+        <v>0.07361416739278791</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04054785571963764</v>
+        <v>0.0459263734920573</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2166568318.30824</v>
+        <v>2237414593.223526</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08490312002181898</v>
+        <v>0.07723111033414184</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0463333197254136</v>
+        <v>0.03512071805529715</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1030,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3509241478.550069</v>
+        <v>4106887930.523709</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1204078043983422</v>
+        <v>0.1213428439287212</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03521499708861828</v>
+        <v>0.04995646681374016</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>96</v>
+      </c>
+      <c r="J17" t="n">
+        <v>199</v>
+      </c>
+      <c r="K17" t="n">
+        <v>111.134470718998</v>
       </c>
     </row>
     <row r="18">
@@ -934,16 +1073,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3244275978.595332</v>
+        <v>3553875154.456925</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1731868867642354</v>
+        <v>0.1331844688549288</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03305870281708392</v>
+        <v>0.03281830424053755</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>51</v>
+      </c>
+      <c r="J18" t="n">
+        <v>199</v>
+      </c>
+      <c r="K18" t="n">
+        <v>111.08667384056</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1104,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1106241177.74591</v>
+        <v>1092591667.090197</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1819036565016378</v>
+        <v>0.1355635785889613</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01725469597055395</v>
+        <v>0.02727425793220941</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1139,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2071176213.823818</v>
+        <v>1807464577.355581</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1385659081607006</v>
+        <v>0.1556498945850731</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02683021581819338</v>
+        <v>0.02548280125251032</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1174,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1891217666.782489</v>
+        <v>2167273824.871009</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08869747372988507</v>
+        <v>0.06887748164935391</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03348042547644502</v>
+        <v>0.02844583630734748</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1215,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3152672623.475353</v>
+        <v>3600083969.152972</v>
       </c>
       <c r="F22" t="n">
-        <v>0.103348521958144</v>
+        <v>0.1433284208596705</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04038618816049919</v>
+        <v>0.0484025030722397</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>51</v>
+      </c>
+      <c r="J22" t="n">
+        <v>198</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1250,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1447594216.100011</v>
+        <v>1163668933.894093</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1663270779928306</v>
+        <v>0.1237024396689047</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05251086882145053</v>
+        <v>0.04967632347915034</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1285,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3050899440.81212</v>
+        <v>2734015133.419952</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1220533889761844</v>
+        <v>0.1057320437141221</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03709017427942981</v>
+        <v>0.02490873213494</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>62</v>
+      </c>
+      <c r="J24" t="n">
+        <v>199</v>
+      </c>
+      <c r="K24" t="n">
+        <v>59.30377375970395</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1316,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1000741348.736567</v>
+        <v>1228836907.808708</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1085230400518278</v>
+        <v>0.07663349650941843</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02835844884666975</v>
+        <v>0.02743787641375084</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1351,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1009946058.894498</v>
+        <v>972224248.3846797</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07590760178349415</v>
+        <v>0.09579444828619482</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03255963419925338</v>
+        <v>0.03669685247087009</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1392,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4614038330.798508</v>
+        <v>3287689117.172095</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1271194070387978</v>
+        <v>0.1078554317013345</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02211264211749386</v>
+        <v>0.02024183815786032</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>79</v>
+      </c>
+      <c r="J27" t="n">
+        <v>196</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1427,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2862119097.225162</v>
+        <v>2645814823.276283</v>
       </c>
       <c r="F28" t="n">
-        <v>0.120404519388099</v>
+        <v>0.1409749070606909</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03745625379139075</v>
+        <v>0.04193278604912808</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>41</v>
+      </c>
+      <c r="J28" t="n">
+        <v>197</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1456,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5119113931.096384</v>
+        <v>4458731349.350356</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1228641229819316</v>
+        <v>0.1340743584662656</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04017350359580652</v>
+        <v>0.0291778776156031</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>189</v>
+      </c>
+      <c r="J29" t="n">
+        <v>200</v>
+      </c>
+      <c r="K29" t="n">
+        <v>135.781009262408</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1499,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1821500536.85266</v>
+        <v>2405647220.081788</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09989216595496647</v>
+        <v>0.1379992366480282</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02908659661763476</v>
+        <v>0.02899802499917097</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1528,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1022842432.384911</v>
+        <v>1502001644.470041</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07432238309942538</v>
+        <v>0.08609466030156007</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04746806168815557</v>
+        <v>0.03398126242828228</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1569,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1869495955.001965</v>
+        <v>1275177713.726195</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07725569016781064</v>
+        <v>0.107490193922998</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0338311343906699</v>
+        <v>0.03588542516299173</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1598,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1924959641.513853</v>
+        <v>2816702657.916417</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1257780970938868</v>
+        <v>0.1630737795420809</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04223904068714052</v>
+        <v>0.05287058385205853</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1633,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1427143509.693152</v>
+        <v>1190808153.039812</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09185936177206136</v>
+        <v>0.1025677630756159</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0260522745867257</v>
+        <v>0.0182099341543913</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1668,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1262135574.877367</v>
+        <v>960518177.5840619</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08859220466030861</v>
+        <v>0.08062095479211395</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04338097826770779</v>
+        <v>0.03433463043724966</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1703,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2712354386.398933</v>
+        <v>2911441449.134061</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1098525247433183</v>
+        <v>0.1136354326220144</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02731941101419615</v>
+        <v>0.02795285199447743</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1738,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2317378798.993576</v>
+        <v>2585448435.446448</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09385732349869154</v>
+        <v>0.1055632335758769</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03567037976797988</v>
+        <v>0.04080252775299651</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1779,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2096222128.493174</v>
+        <v>2188329188.818868</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1149107043733032</v>
+        <v>0.09724057990525119</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03087164586058462</v>
+        <v>0.02771682571098488</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1808,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1600005354.039761</v>
+        <v>1822376128.639717</v>
       </c>
       <c r="F39" t="n">
-        <v>0.136671733046563</v>
+        <v>0.1651096854301722</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02653692147326523</v>
+        <v>0.02757667614461743</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1843,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1769697171.765587</v>
+        <v>1728010208.5448</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1364147064526526</v>
+        <v>0.1110203724385189</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04880286504309576</v>
+        <v>0.03995528335566004</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1878,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2445175757.278603</v>
+        <v>1918959055.747367</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1075358911439709</v>
+        <v>0.1381057896998125</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04413252915605376</v>
+        <v>0.04542421732996485</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1913,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3351047075.447678</v>
+        <v>3441948755.647192</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1077740725039834</v>
+        <v>0.0939216975240765</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0379692984958887</v>
+        <v>0.04009899379089035</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>79</v>
+      </c>
+      <c r="J42" t="n">
+        <v>199</v>
+      </c>
+      <c r="K42" t="n">
+        <v>106.7755091999765</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1950,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1887434607.663836</v>
+        <v>2575247756.869589</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1833245585063471</v>
+        <v>0.17826639270321</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01915207201682354</v>
+        <v>0.02418623532708206</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1985,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1463060717.58879</v>
+        <v>1845987290.469135</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07322768630435603</v>
+        <v>0.06491009234750238</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02365456353888751</v>
+        <v>0.02456453215986351</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2020,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2348366485.206017</v>
+        <v>2365246633.207066</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1456345474081189</v>
+        <v>0.1884276739528155</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05093448740853889</v>
+        <v>0.05320397990039048</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2055,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5560325726.008873</v>
+        <v>3681909146.261695</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1299808065707246</v>
+        <v>0.1366643339880394</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04098985895629877</v>
+        <v>0.04109210733937407</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>114</v>
+      </c>
+      <c r="J46" t="n">
+        <v>200</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2090,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4913474468.661996</v>
+        <v>4681596176.331601</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1409309645466605</v>
+        <v>0.1276290664848206</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05129830464240941</v>
+        <v>0.03597571617920908</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>89</v>
+      </c>
+      <c r="J47" t="n">
+        <v>200</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2125,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3545814027.659629</v>
+        <v>3696746180.908035</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1097977130232454</v>
+        <v>0.08904449361754833</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03872822993329682</v>
+        <v>0.0324514325598111</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>97</v>
+      </c>
+      <c r="J48" t="n">
+        <v>200</v>
+      </c>
+      <c r="K48" t="n">
+        <v>123.2289584262044</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2168,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1242057651.501792</v>
+        <v>1558907530.586688</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1728662136673369</v>
+        <v>0.1868822729705071</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04280204722398254</v>
+        <v>0.03840133133314488</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2197,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2586881372.09215</v>
+        <v>3706178220.752618</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1360116984439343</v>
+        <v>0.1231608162475302</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04216892640170451</v>
+        <v>0.0465369087298429</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>63</v>
+      </c>
+      <c r="J50" t="n">
+        <v>199</v>
+      </c>
+      <c r="K50" t="n">
+        <v>123.1524839492342</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2234,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1047119829.684928</v>
+        <v>933353821.8879337</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1825061465187693</v>
+        <v>0.1316230941325188</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03618002155993486</v>
+        <v>0.05125086003491938</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2269,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4411055502.009658</v>
+        <v>4937683247.645766</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1249095813150555</v>
+        <v>0.1165201519812643</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05043319474059118</v>
+        <v>0.05250955402024568</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>138</v>
+      </c>
+      <c r="J52" t="n">
+        <v>199</v>
+      </c>
+      <c r="K52" t="n">
+        <v>117.8206095436092</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2306,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2506105891.67886</v>
+        <v>3577256904.035865</v>
       </c>
       <c r="F53" t="n">
-        <v>0.20400235625591</v>
+        <v>0.1862068813775807</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02589610107549985</v>
+        <v>0.0330643212928461</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>26</v>
+      </c>
+      <c r="J53" t="n">
+        <v>185</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2341,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4803903484.740423</v>
+        <v>4013827467.880148</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1383505968175544</v>
+        <v>0.1426978398374475</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04529657323186975</v>
+        <v>0.0481142352182039</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>102</v>
+      </c>
+      <c r="J54" t="n">
+        <v>200</v>
+      </c>
+      <c r="K54" t="n">
+        <v>124.0470106033258</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2378,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3392353036.277553</v>
+        <v>3707550395.142092</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2127345668820291</v>
+        <v>0.1484927475519108</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02481567183549028</v>
+        <v>0.02535836873970427</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>89</v>
+      </c>
+      <c r="J55" t="n">
+        <v>200</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2419,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1460211184.206899</v>
+        <v>1668225176.182013</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1077134326260036</v>
+        <v>0.121568564690993</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05735877191791423</v>
+        <v>0.03987180015187142</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2448,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4398846509.985613</v>
+        <v>3892000836.321364</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1348394701798046</v>
+        <v>0.1784164290103997</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02250956741146665</v>
+        <v>0.02436123655217436</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>79</v>
+      </c>
+      <c r="J57" t="n">
+        <v>200</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2483,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1297466135.453433</v>
+        <v>1497556949.17624</v>
       </c>
       <c r="F58" t="n">
-        <v>0.191042875978441</v>
+        <v>0.1684624072084453</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03933840441811511</v>
+        <v>0.02835057510436489</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2518,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4330208653.387997</v>
+        <v>4905544690.996172</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1003773786374303</v>
+        <v>0.1136689184147496</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04788467953100441</v>
+        <v>0.0414724698920544</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>96</v>
+      </c>
+      <c r="J59" t="n">
+        <v>200</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2553,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3703945968.588297</v>
+        <v>3202973585.321027</v>
       </c>
       <c r="F60" t="n">
-        <v>0.133911288863708</v>
+        <v>0.1553847173711834</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02908121059829142</v>
+        <v>0.03290829283329514</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>29</v>
+      </c>
+      <c r="J60" t="n">
+        <v>199</v>
+      </c>
+      <c r="K60" t="n">
+        <v>93.40573420941425</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2590,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2767833671.580228</v>
+        <v>2916258189.543877</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1587859755284829</v>
+        <v>0.1474522577832412</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02697380901749862</v>
+        <v>0.02567395198220611</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2625,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2004015986.226584</v>
+        <v>1876329002.090629</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1629669850209306</v>
+        <v>0.1894786537158436</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03976204629223081</v>
+        <v>0.04006458368122042</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2660,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4803553991.420316</v>
+        <v>4543732346.402272</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08002361778256672</v>
+        <v>0.08339294155737323</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04745700710336186</v>
+        <v>0.0381154804188588</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>98</v>
+      </c>
+      <c r="J63" t="n">
+        <v>199</v>
+      </c>
+      <c r="K63" t="n">
+        <v>112.0593801362992</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2697,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4630668065.749854</v>
+        <v>5468400087.766234</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1432203498197359</v>
+        <v>0.1571411157670419</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02591730489294232</v>
+        <v>0.02266546732968494</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>98</v>
+      </c>
+      <c r="J64" t="n">
+        <v>200</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2732,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4585523186.064857</v>
+        <v>5707579906.657708</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1292717939962686</v>
+        <v>0.1053269848064678</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0278117803112476</v>
+        <v>0.03151234313318189</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>161</v>
+      </c>
+      <c r="J65" t="n">
+        <v>200</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,17 +2773,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4962772546.742291</v>
+        <v>5527314854.693537</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1563776015410426</v>
+        <v>0.1001826191873575</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04917477478221735</v>
+        <v>0.04643143114317871</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>98</v>
+      </c>
+      <c r="J66" t="n">
+        <v>200</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2808,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3164289664.178366</v>
+        <v>2165710129.683058</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07379633527216671</v>
+        <v>0.06843602799027437</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03244640643558656</v>
+        <v>0.05075054859082805</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>188</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2837,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3658409174.744974</v>
+        <v>4268975645.017014</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1167641691368891</v>
+        <v>0.1555491501553488</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03485876614542466</v>
+        <v>0.04510027894325877</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>101</v>
+      </c>
+      <c r="J68" t="n">
+        <v>199</v>
+      </c>
+      <c r="K68" t="n">
+        <v>115.7860463173037</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2874,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2422160051.91132</v>
+        <v>2311086931.380023</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1800847891856233</v>
+        <v>0.126539309357818</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0475313156956359</v>
+        <v>0.05789720712900642</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2915,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2252504685.736767</v>
+        <v>3003557431.894106</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06908505548224261</v>
+        <v>0.0698408689328204</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03020735603218653</v>
+        <v>0.0388662482792375</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>30</v>
+      </c>
+      <c r="J70" t="n">
+        <v>198</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2944,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4580263192.852243</v>
+        <v>5065682740.226146</v>
       </c>
       <c r="F71" t="n">
-        <v>0.157962651176147</v>
+        <v>0.1192133044889445</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03402187845664504</v>
+        <v>0.0311443264285101</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>153</v>
+      </c>
+      <c r="J71" t="n">
+        <v>200</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1931308347.823274</v>
+        <v>1502104886.768399</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1043633757109278</v>
+        <v>0.0900019794283954</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04014423171669858</v>
+        <v>0.04073025937514677</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3337033749.233585</v>
+        <v>2374179529.7918</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07328388238652725</v>
+        <v>0.09775893473036151</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04968370611391602</v>
+        <v>0.03342126221163536</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
+        <v>185</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3055,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3697263265.111976</v>
+        <v>2961219568.147005</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1611763759726473</v>
+        <v>0.1392102153654008</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02261720192640352</v>
+        <v>0.03291059448451547</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>57</v>
+      </c>
+      <c r="J74" t="n">
+        <v>197</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2474982098.193425</v>
+        <v>1511253213.750994</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1014329679551826</v>
+        <v>0.1674791400494729</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03744971532086815</v>
+        <v>0.02450480818185411</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3119,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5020222009.327799</v>
+        <v>5047545456.722306</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1222140466015061</v>
+        <v>0.12142539334015</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02132488192927499</v>
+        <v>0.02316461024013285</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>91</v>
+      </c>
+      <c r="J76" t="n">
+        <v>200</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3160,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1924485536.335947</v>
+        <v>2112164723.131531</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1176893470307905</v>
+        <v>0.1471109023372024</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03001604934268614</v>
+        <v>0.02464759596307346</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3803079875.543282</v>
+        <v>3633200514.012005</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09721305212245782</v>
+        <v>0.1250880982110938</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03697426176406163</v>
+        <v>0.04167886295431829</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>99</v>
+      </c>
+      <c r="J78" t="n">
+        <v>200</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1308872173.872274</v>
+        <v>1787039059.118515</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1361131729132164</v>
+        <v>0.1362670951538814</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04073482350497055</v>
+        <v>0.03106493122039093</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3259,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4804047027.477126</v>
+        <v>4103249818.761025</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1074214059919887</v>
+        <v>0.0854561000823615</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0371994798195194</v>
+        <v>0.03409781864120107</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>98</v>
+      </c>
+      <c r="J80" t="n">
+        <v>199</v>
+      </c>
+      <c r="K80" t="n">
+        <v>88.24873292323061</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +3302,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4031763416.438592</v>
+        <v>3989811525.403653</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09658522313766799</v>
+        <v>0.1068322756813879</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03181658629715812</v>
+        <v>0.02060199459344056</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>92</v>
+      </c>
+      <c r="J81" t="n">
+        <v>199</v>
+      </c>
+      <c r="K81" t="n">
+        <v>104.3933440220514</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5291843366.402081</v>
+        <v>5660472021.968438</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2075286719352347</v>
+        <v>0.1541465294832041</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02004843410266256</v>
+        <v>0.02574280083478159</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>147</v>
+      </c>
+      <c r="J82" t="n">
+        <v>200</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1827743902.541218</v>
+        <v>2297073196.188635</v>
       </c>
       <c r="F83" t="n">
-        <v>0.110614130492011</v>
+        <v>0.1256674928749625</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04325612657661954</v>
+        <v>0.03608321524426827</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3409,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1600306540.215988</v>
+        <v>2121551033.0799</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1175540658017149</v>
+        <v>0.07890421318636597</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04915088559728786</v>
+        <v>0.04256595569139669</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3480389224.110399</v>
+        <v>2726287779.712266</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1341187100042191</v>
+        <v>0.1361586748166248</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03502749632419763</v>
+        <v>0.04253695656031336</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>28</v>
+      </c>
+      <c r="J85" t="n">
+        <v>197</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2686455763.271647</v>
+        <v>2216060430.765417</v>
       </c>
       <c r="F86" t="n">
-        <v>0.148180297683892</v>
+        <v>0.1543091495128189</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02223492045144995</v>
+        <v>0.01714196524980978</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1305044421.887453</v>
+        <v>938053114.1961355</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1545997922693453</v>
+        <v>0.1194534656338507</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03444078210289057</v>
+        <v>0.02950125758035821</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2782340040.704448</v>
+        <v>3512825932.497064</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1643807426674799</v>
+        <v>0.109551203548157</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02768703197174242</v>
+        <v>0.03253547289768504</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>28</v>
+      </c>
+      <c r="J88" t="n">
+        <v>192</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3116284151.527398</v>
+        <v>3355682167.373741</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1199810193195655</v>
+        <v>0.1435673805761797</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0391060380157968</v>
+        <v>0.02741424320370156</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>14</v>
+      </c>
+      <c r="J89" t="n">
+        <v>190</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2158262154.205873</v>
+        <v>1540344092.536122</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09951149626439655</v>
+        <v>0.1061034365928104</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04704301301580369</v>
+        <v>0.03585684180499134</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1818859219.587796</v>
+        <v>1459536283.895056</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1872225180248909</v>
+        <v>0.1643049511874067</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05206937103186561</v>
+        <v>0.05477427814837925</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2647998968.17345</v>
+        <v>2567445217.371125</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07073580062455875</v>
+        <v>0.08501194099171554</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04124585165621321</v>
+        <v>0.04386074424301244</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4993868429.538573</v>
+        <v>3702150615.530731</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08817452271913985</v>
+        <v>0.1301857032491148</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03620356867814609</v>
+        <v>0.04865600680527565</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>90</v>
+      </c>
+      <c r="J93" t="n">
+        <v>200</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1887376028.148818</v>
+        <v>1944236220.463455</v>
       </c>
       <c r="F94" t="n">
-        <v>0.140865737856284</v>
+        <v>0.1624833611659288</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03822916320721598</v>
+        <v>0.03967311025587546</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2375992283.690654</v>
+        <v>3118717389.916296</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09939787607342175</v>
+        <v>0.1026493525292214</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03439168320823428</v>
+        <v>0.04904405851836035</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1862835134.039901</v>
+        <v>1968755397.553391</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09617451484509452</v>
+        <v>0.1201253206607709</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04480172429937891</v>
+        <v>0.03693299647937961</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3864,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3321369856.471487</v>
+        <v>3714061186.29922</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1551743360639127</v>
+        <v>0.1621590470773552</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02515605879698142</v>
+        <v>0.01766343393984789</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>97</v>
+      </c>
+      <c r="J97" t="n">
+        <v>199</v>
+      </c>
+      <c r="K97" t="n">
+        <v>118.0697956790102</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2692985829.239233</v>
+        <v>3943832910.995347</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08888558770751896</v>
+        <v>0.09115938255041092</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02020972515635425</v>
+        <v>0.02245533539456465</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>49</v>
+      </c>
+      <c r="J98" t="n">
+        <v>200</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2476509991.661186</v>
+        <v>2527840636.56076</v>
       </c>
       <c r="F99" t="n">
-        <v>0.145299274751643</v>
+        <v>0.1158163172740972</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02189188214952149</v>
+        <v>0.03266699189393781</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4308713547.822803</v>
+        <v>3822555380.040022</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1281467067055251</v>
+        <v>0.1729758012243633</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01712403265077584</v>
+        <v>0.02474447896598239</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>82</v>
+      </c>
+      <c r="J100" t="n">
+        <v>200</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3450247193.968539</v>
+        <v>2873331050.062638</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1348290782574075</v>
+        <v>0.1858998945324238</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05745330437839571</v>
+        <v>0.05273892861737037</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
